--- a/data/pca/factorExposure/factorExposure_2014-11-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,21 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +726,57 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.007696410215739612</v>
+        <v>-0.008664709977453831</v>
       </c>
       <c r="C2">
-        <v>0.06530932840642094</v>
+        <v>0.07070224552505983</v>
       </c>
       <c r="D2">
-        <v>0.1568525553817321</v>
+        <v>0.01076136662911958</v>
       </c>
       <c r="E2">
-        <v>-0.1667411945949173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.1828787790268559</v>
+      </c>
+      <c r="F2">
+        <v>0.04333304058707597</v>
+      </c>
+      <c r="G2">
+        <v>-0.06663687469117481</v>
+      </c>
+      <c r="H2">
+        <v>-0.06322327289187916</v>
+      </c>
+      <c r="I2">
+        <v>0.1036567875531971</v>
+      </c>
+      <c r="J2">
+        <v>-0.2407609694464489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +790,57 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.01706806618355842</v>
+        <v>-0.01221765894020551</v>
       </c>
       <c r="C4">
-        <v>0.142385894467142</v>
+        <v>0.1483505911515402</v>
       </c>
       <c r="D4">
-        <v>0.08375801884604543</v>
+        <v>-0.02073811240736121</v>
       </c>
       <c r="E4">
-        <v>-0.07073432791598512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.1067415271883431</v>
+      </c>
+      <c r="F4">
+        <v>-0.06940361406910955</v>
+      </c>
+      <c r="G4">
+        <v>-0.01372937462917505</v>
+      </c>
+      <c r="H4">
+        <v>-0.1065920604580397</v>
+      </c>
+      <c r="I4">
+        <v>-0.01339209062353488</v>
+      </c>
+      <c r="J4">
+        <v>-0.1263007420828056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +854,377 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.01786590588160942</v>
+        <v>-0.03129661673949747</v>
       </c>
       <c r="C6">
-        <v>0.07087621192777648</v>
+        <v>0.07355402507789345</v>
       </c>
       <c r="D6">
-        <v>0.05986206045275484</v>
+        <v>-0.00788286788392209</v>
       </c>
       <c r="E6">
-        <v>-0.09069300218391402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.1071612336120703</v>
+      </c>
+      <c r="F6">
+        <v>0.0344390687069546</v>
+      </c>
+      <c r="G6">
+        <v>0.03868521505595103</v>
+      </c>
+      <c r="H6">
+        <v>-0.03931156026564425</v>
+      </c>
+      <c r="I6">
+        <v>0.0480849144133649</v>
+      </c>
+      <c r="J6">
+        <v>-0.009796974481541144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.01858772408265057</v>
+        <v>-0.00511359341080517</v>
       </c>
       <c r="C7">
-        <v>0.04983352193577807</v>
+        <v>0.06694865530562916</v>
       </c>
       <c r="D7">
-        <v>0.0373516432330349</v>
+        <v>-0.001401431068009417</v>
       </c>
       <c r="E7">
-        <v>-0.05820567963549121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05112391679158278</v>
+      </c>
+      <c r="F7">
+        <v>-0.02094656577668906</v>
+      </c>
+      <c r="G7">
+        <v>0.05442093506337767</v>
+      </c>
+      <c r="H7">
+        <v>-0.08416119151138433</v>
+      </c>
+      <c r="I7">
+        <v>0.009950403439064497</v>
+      </c>
+      <c r="J7">
+        <v>-0.0352725124684005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.01298270902733449</v>
+        <v>0.008426666391463796</v>
       </c>
       <c r="C8">
-        <v>0.07199306616808665</v>
+        <v>0.06972138778091752</v>
       </c>
       <c r="D8">
-        <v>0.06327647841165816</v>
+        <v>-0.02301092820992962</v>
       </c>
       <c r="E8">
-        <v>-0.1258684902495824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.09213869837695711</v>
+      </c>
+      <c r="F8">
+        <v>-0.02754108783881811</v>
+      </c>
+      <c r="G8">
+        <v>-0.0529983988513654</v>
+      </c>
+      <c r="H8">
+        <v>-0.02768494179410765</v>
+      </c>
+      <c r="I8">
+        <v>0.008278724430922042</v>
+      </c>
+      <c r="J8">
+        <v>-0.007972275883538172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.01094505205408158</v>
+        <v>-0.007718414458803515</v>
       </c>
       <c r="C9">
-        <v>0.1207852115698516</v>
+        <v>0.1163019363594593</v>
       </c>
       <c r="D9">
-        <v>0.05657945273306465</v>
+        <v>-0.01600691977312657</v>
       </c>
       <c r="E9">
-        <v>-0.06375883230235202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.06895873000959646</v>
+      </c>
+      <c r="F9">
+        <v>-0.0154938688303748</v>
+      </c>
+      <c r="G9">
+        <v>-0.001280766990386167</v>
+      </c>
+      <c r="H9">
+        <v>-0.1051769474005597</v>
+      </c>
+      <c r="I9">
+        <v>0.007192303252041943</v>
+      </c>
+      <c r="J9">
+        <v>-0.04572152126596034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.2556070056180045</v>
+        <v>-0.2517337922627551</v>
       </c>
       <c r="C10">
-        <v>-0.08934794954238325</v>
+        <v>-0.08302358898262857</v>
       </c>
       <c r="D10">
-        <v>0.03648835272837089</v>
+        <v>0.002315470113553428</v>
       </c>
       <c r="E10">
-        <v>0.0506191984530413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01140956068463586</v>
+      </c>
+      <c r="F10">
+        <v>-0.01320830624664529</v>
+      </c>
+      <c r="G10">
+        <v>0.009629692219051935</v>
+      </c>
+      <c r="H10">
+        <v>-0.03438974959178781</v>
+      </c>
+      <c r="I10">
+        <v>-0.1669752443101293</v>
+      </c>
+      <c r="J10">
+        <v>0.09101473831127728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.001994701134402218</v>
+        <v>-0.009862428372771955</v>
       </c>
       <c r="C11">
-        <v>0.06256590010516311</v>
+        <v>0.07993256058383376</v>
       </c>
       <c r="D11">
-        <v>0.02537334850592899</v>
+        <v>-0.01762182531529681</v>
       </c>
       <c r="E11">
-        <v>-0.03201723506070243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02783459707996632</v>
+      </c>
+      <c r="F11">
+        <v>-0.009433893786934797</v>
+      </c>
+      <c r="G11">
+        <v>0.03260629474589165</v>
+      </c>
+      <c r="H11">
+        <v>-0.03918976670696492</v>
+      </c>
+      <c r="I11">
+        <v>-0.005824114807583622</v>
+      </c>
+      <c r="J11">
+        <v>0.05620707996811674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.005078185038705467</v>
+        <v>-0.01168539847138667</v>
       </c>
       <c r="C12">
-        <v>0.05846846240243787</v>
+        <v>0.06269204830565177</v>
       </c>
       <c r="D12">
-        <v>0.0201747013243375</v>
+        <v>-0.006919660823091891</v>
       </c>
       <c r="E12">
-        <v>-0.02695129944280432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.02471266659342497</v>
+      </c>
+      <c r="F12">
+        <v>0.02071660629082934</v>
+      </c>
+      <c r="G12">
+        <v>0.03571360168730095</v>
+      </c>
+      <c r="H12">
+        <v>-0.04110299076883275</v>
+      </c>
+      <c r="I12">
+        <v>-0.01014739159724769</v>
+      </c>
+      <c r="J12">
+        <v>0.02735151639512462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.003241207386592489</v>
+        <v>-0.0009874992118455205</v>
       </c>
       <c r="C13">
-        <v>0.08708012513991095</v>
+        <v>0.1116280871595911</v>
       </c>
       <c r="D13">
-        <v>0.08203858931407805</v>
+        <v>0.006208281860650763</v>
       </c>
       <c r="E13">
-        <v>-0.122379186662563</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.1557354075366963</v>
+      </c>
+      <c r="F13">
+        <v>0.1023718038983708</v>
+      </c>
+      <c r="G13">
+        <v>0.07266226483382618</v>
+      </c>
+      <c r="H13">
+        <v>-0.08639739176058288</v>
+      </c>
+      <c r="I13">
+        <v>-0.1103349912751932</v>
+      </c>
+      <c r="J13">
+        <v>0.07098145003548112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.005040345433277187</v>
+        <v>-0.007433086452887616</v>
       </c>
       <c r="C14">
-        <v>0.05893427123311986</v>
+        <v>0.07804005877149374</v>
       </c>
       <c r="D14">
-        <v>0.0345670391676977</v>
+        <v>-0.02431780666132184</v>
       </c>
       <c r="E14">
-        <v>-0.06175130313103907</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.07444135024105523</v>
+      </c>
+      <c r="F14">
+        <v>0.03615764639655481</v>
+      </c>
+      <c r="G14">
+        <v>0.0812005753195231</v>
+      </c>
+      <c r="H14">
+        <v>-0.1567033234926447</v>
+      </c>
+      <c r="I14">
+        <v>0.0255175511888728</v>
+      </c>
+      <c r="J14">
+        <v>0.1316142221437721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.0009512714394270457</v>
+        <v>0.001896244696703645</v>
       </c>
       <c r="C15">
-        <v>0.0669229140055959</v>
+        <v>0.07131320568201141</v>
       </c>
       <c r="D15">
-        <v>0.05581339801515142</v>
+        <v>-0.00812430405360037</v>
       </c>
       <c r="E15">
-        <v>-0.08618114216562119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.06210889437297976</v>
+      </c>
+      <c r="F15">
+        <v>-0.006490430642522269</v>
+      </c>
+      <c r="G15">
+        <v>0.02845526185976813</v>
+      </c>
+      <c r="H15">
+        <v>-0.05289794047886135</v>
+      </c>
+      <c r="I15">
+        <v>0.0121453378240219</v>
+      </c>
+      <c r="J15">
+        <v>0.04348634316722468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.006679242629599336</v>
+        <v>-0.01036515525228088</v>
       </c>
       <c r="C16">
-        <v>0.05788084407928783</v>
+        <v>0.06698374040252256</v>
       </c>
       <c r="D16">
-        <v>0.024360943570825</v>
+        <v>-0.007645258090666909</v>
       </c>
       <c r="E16">
-        <v>-0.0220897593400395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.01737770839442937</v>
+      </c>
+      <c r="F16">
+        <v>0.001905866438130106</v>
+      </c>
+      <c r="G16">
+        <v>0.03178683334053972</v>
+      </c>
+      <c r="H16">
+        <v>-0.03644286068208352</v>
+      </c>
+      <c r="I16">
+        <v>-0.00786507032008669</v>
+      </c>
+      <c r="J16">
+        <v>0.02166199305293027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1238,25 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1270,25 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1302,249 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.001922633799241797</v>
+        <v>-0.006169125115219875</v>
       </c>
       <c r="C20">
-        <v>0.06690312651512373</v>
+        <v>0.08376623095417278</v>
       </c>
       <c r="D20">
-        <v>0.05662560844009303</v>
+        <v>0.001582953850367186</v>
       </c>
       <c r="E20">
-        <v>-0.04418703832897954</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.04604957505394103</v>
+      </c>
+      <c r="F20">
+        <v>-0.01534481510287288</v>
+      </c>
+      <c r="G20">
+        <v>0.06989913739242627</v>
+      </c>
+      <c r="H20">
+        <v>-0.06648676072030459</v>
+      </c>
+      <c r="I20">
+        <v>0.007145477699294488</v>
+      </c>
+      <c r="J20">
+        <v>0.006103651807459666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.007274359507996372</v>
+        <v>-0.008720246571269647</v>
       </c>
       <c r="C21">
-        <v>0.08263786440207742</v>
+        <v>0.0817705394356122</v>
       </c>
       <c r="D21">
-        <v>0.09270505321765481</v>
+        <v>-0.00278528344974217</v>
       </c>
       <c r="E21">
-        <v>-0.06327277841603655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.09532592658323605</v>
+      </c>
+      <c r="F21">
+        <v>0.07373687233474291</v>
+      </c>
+      <c r="G21">
+        <v>0.009354350805394577</v>
+      </c>
+      <c r="H21">
+        <v>-0.1775617332893151</v>
+      </c>
+      <c r="I21">
+        <v>-0.04490420635920855</v>
+      </c>
+      <c r="J21">
+        <v>0.06884895740148968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.0136149185132121</v>
+        <v>0.01618780159420721</v>
       </c>
       <c r="C22">
-        <v>0.1288951652093927</v>
+        <v>0.1410109038596826</v>
       </c>
       <c r="D22">
-        <v>0.2542146441803251</v>
+        <v>0.03588715619889946</v>
       </c>
       <c r="E22">
-        <v>-0.1802759412630762</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.3731720834203877</v>
+      </c>
+      <c r="F22">
+        <v>-0.1366585916742408</v>
+      </c>
+      <c r="G22">
+        <v>-0.2417980884766743</v>
+      </c>
+      <c r="H22">
+        <v>0.4123351783960775</v>
+      </c>
+      <c r="I22">
+        <v>-0.05159410693994924</v>
+      </c>
+      <c r="J22">
+        <v>0.1770845583440718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.01411888822953117</v>
+        <v>0.01266250389228729</v>
       </c>
       <c r="C23">
-        <v>0.1305943017301421</v>
+        <v>0.1454420792068542</v>
       </c>
       <c r="D23">
-        <v>0.2526418669201458</v>
+        <v>0.03832656192184981</v>
       </c>
       <c r="E23">
-        <v>-0.1786750006031659</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.3651611146690961</v>
+      </c>
+      <c r="F23">
+        <v>-0.1303417190159174</v>
+      </c>
+      <c r="G23">
+        <v>-0.2345380578374873</v>
+      </c>
+      <c r="H23">
+        <v>0.3853228441338842</v>
+      </c>
+      <c r="I23">
+        <v>-0.05434925724331925</v>
+      </c>
+      <c r="J23">
+        <v>0.1718841185199055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.0004376903780033865</v>
+        <v>-0.01079537760673497</v>
       </c>
       <c r="C24">
-        <v>0.07450383430620713</v>
+        <v>0.07733388550027778</v>
       </c>
       <c r="D24">
-        <v>0.01760266151832965</v>
+        <v>-0.02218679139036965</v>
       </c>
       <c r="E24">
-        <v>-0.04022540780298554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.03096629041062772</v>
+      </c>
+      <c r="F24">
+        <v>-0.002784975702513297</v>
+      </c>
+      <c r="G24">
+        <v>0.03732435703801198</v>
+      </c>
+      <c r="H24">
+        <v>-0.05373144308264011</v>
+      </c>
+      <c r="I24">
+        <v>-0.001924983671991663</v>
+      </c>
+      <c r="J24">
+        <v>0.03455563733516509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.008082284289881923</v>
+        <v>-0.01688051316841594</v>
       </c>
       <c r="C25">
-        <v>0.07080954675358843</v>
+        <v>0.07543250240916276</v>
       </c>
       <c r="D25">
-        <v>0.02022784867742885</v>
+        <v>-0.01317317565926446</v>
       </c>
       <c r="E25">
-        <v>-0.01693130912839654</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.02065899602931346</v>
+      </c>
+      <c r="F25">
+        <v>-0.005755746005095667</v>
+      </c>
+      <c r="G25">
+        <v>0.0305311520395537</v>
+      </c>
+      <c r="H25">
+        <v>-0.03844957507241484</v>
+      </c>
+      <c r="I25">
+        <v>-0.01706777051129746</v>
+      </c>
+      <c r="J25">
+        <v>0.04897138585449223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.004473490266259771</v>
+        <v>-0.01673559470048593</v>
       </c>
       <c r="C26">
-        <v>0.04995381690642469</v>
+        <v>0.06240326203886802</v>
       </c>
       <c r="D26">
-        <v>0.02735893182201023</v>
+        <v>-0.0420222545559191</v>
       </c>
       <c r="E26">
-        <v>-0.06135901617629361</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04817686824617995</v>
+      </c>
+      <c r="F26">
+        <v>0.005149042184589087</v>
+      </c>
+      <c r="G26">
+        <v>0.02631435813813043</v>
+      </c>
+      <c r="H26">
+        <v>-0.1309920176446739</v>
+      </c>
+      <c r="I26">
+        <v>-0.01169948600078483</v>
+      </c>
+      <c r="J26">
+        <v>-0.05615409552117825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1558,313 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.3258228211425823</v>
+        <v>-0.3145334635862896</v>
       </c>
       <c r="C28">
-        <v>-0.09661172712614023</v>
+        <v>-0.1022640471635921</v>
       </c>
       <c r="D28">
-        <v>0.02073357033687972</v>
+        <v>0.01615465252660781</v>
       </c>
       <c r="E28">
-        <v>0.06292363269097345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.01301378795679864</v>
+      </c>
+      <c r="F28">
+        <v>-0.05301073531799114</v>
+      </c>
+      <c r="G28">
+        <v>-0.0737601647612869</v>
+      </c>
+      <c r="H28">
+        <v>-0.06954575607670045</v>
+      </c>
+      <c r="I28">
+        <v>-0.1720181202257521</v>
+      </c>
+      <c r="J28">
+        <v>-0.08960948081426172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.001683626207669558</v>
+        <v>-0.004444928611881052</v>
       </c>
       <c r="C29">
-        <v>0.05830561784735043</v>
+        <v>0.08049827097171353</v>
       </c>
       <c r="D29">
-        <v>0.05074988941075111</v>
+        <v>-0.018728423356175</v>
       </c>
       <c r="E29">
-        <v>-0.08940840119566422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.09936500413279058</v>
+      </c>
+      <c r="F29">
+        <v>0.04988965887424899</v>
+      </c>
+      <c r="G29">
+        <v>0.1172303834795335</v>
+      </c>
+      <c r="H29">
+        <v>-0.1998251913108056</v>
+      </c>
+      <c r="I29">
+        <v>0.05097087038227216</v>
+      </c>
+      <c r="J29">
+        <v>0.171624979119857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.01676107156617143</v>
+        <v>-0.01865223105095938</v>
       </c>
       <c r="C30">
-        <v>0.1716391439520322</v>
+        <v>0.1552549623632711</v>
       </c>
       <c r="D30">
-        <v>0.05831267507813402</v>
+        <v>-0.02812416262340088</v>
       </c>
       <c r="E30">
-        <v>-0.08460430495626636</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.07973882880225812</v>
+      </c>
+      <c r="F30">
+        <v>-0.02458413667371351</v>
+      </c>
+      <c r="G30">
+        <v>-0.01633406623149495</v>
+      </c>
+      <c r="H30">
+        <v>-0.03411593451891531</v>
+      </c>
+      <c r="I30">
+        <v>0.01862754307760242</v>
+      </c>
+      <c r="J30">
+        <v>-0.06695949723304075</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.01126379124879725</v>
+        <v>-0.003451517280164057</v>
       </c>
       <c r="C31">
-        <v>0.09967383867081459</v>
+        <v>0.09972391385498314</v>
       </c>
       <c r="D31">
-        <v>-0.02719094280178149</v>
+        <v>-0.02978431822368457</v>
       </c>
       <c r="E31">
-        <v>-0.005104760171861723</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008418413762626704</v>
+      </c>
+      <c r="F31">
+        <v>-0.001243235729834659</v>
+      </c>
+      <c r="G31">
+        <v>-0.0284674678025003</v>
+      </c>
+      <c r="H31">
+        <v>-0.05670401366768704</v>
+      </c>
+      <c r="I31">
+        <v>-0.03680790508480437</v>
+      </c>
+      <c r="J31">
+        <v>0.06018578589639243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.01728705186838739</v>
+        <v>-0.02028601850385132</v>
       </c>
       <c r="C32">
-        <v>0.07543151446280488</v>
+        <v>0.06815168203427861</v>
       </c>
       <c r="D32">
-        <v>0.1210836529384699</v>
+        <v>0.01454792032019971</v>
       </c>
       <c r="E32">
-        <v>-0.07986771984139865</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.1270143713488353</v>
+      </c>
+      <c r="F32">
+        <v>0.02610736076856074</v>
+      </c>
+      <c r="G32">
+        <v>-5.199468602588009e-05</v>
+      </c>
+      <c r="H32">
+        <v>-0.1084425728162522</v>
+      </c>
+      <c r="I32">
+        <v>-0.2203441760762946</v>
+      </c>
+      <c r="J32">
+        <v>-0.03972081824367405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.0008904580438245772</v>
+        <v>-0.009188532234227635</v>
       </c>
       <c r="C33">
-        <v>0.08980976825825465</v>
+        <v>0.1096027908233951</v>
       </c>
       <c r="D33">
-        <v>0.03171102760889073</v>
+        <v>-0.01155940161860632</v>
       </c>
       <c r="E33">
-        <v>-0.05945881501915217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.05796049942928726</v>
+      </c>
+      <c r="F33">
+        <v>-0.002094546990143549</v>
+      </c>
+      <c r="G33">
+        <v>0.03705165713045595</v>
+      </c>
+      <c r="H33">
+        <v>-0.0579459882920086</v>
+      </c>
+      <c r="I33">
+        <v>-0.02584646056629861</v>
+      </c>
+      <c r="J33">
+        <v>0.02154091936575834</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.0007408239905690955</v>
+        <v>-0.01125672625818625</v>
       </c>
       <c r="C34">
-        <v>0.05639829583301291</v>
+        <v>0.05618727166487212</v>
       </c>
       <c r="D34">
-        <v>0.01057647836427962</v>
+        <v>-0.01158906320536154</v>
       </c>
       <c r="E34">
-        <v>-0.02094308756918462</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.01508878333414951</v>
+      </c>
+      <c r="F34">
+        <v>0.01003323481419239</v>
+      </c>
+      <c r="G34">
+        <v>0.03065933231461575</v>
+      </c>
+      <c r="H34">
+        <v>-0.01370828380491661</v>
+      </c>
+      <c r="I34">
+        <v>-0.02192180020813419</v>
+      </c>
+      <c r="J34">
+        <v>0.03209012753067982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.002265191128468862</v>
+        <v>-0.00593771269993909</v>
       </c>
       <c r="C35">
-        <v>0.007924680735074421</v>
+        <v>0.03632080516996808</v>
       </c>
       <c r="D35">
-        <v>0.01054369059216307</v>
+        <v>-0.004560348822361266</v>
       </c>
       <c r="E35">
-        <v>-0.007734325711375559</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.03810710520076803</v>
+      </c>
+      <c r="F35">
+        <v>0.01145804785058776</v>
+      </c>
+      <c r="G35">
+        <v>0.05220620784150345</v>
+      </c>
+      <c r="H35">
+        <v>-0.1129557426392943</v>
+      </c>
+      <c r="I35">
+        <v>-0.004325088917034491</v>
+      </c>
+      <c r="J35">
+        <v>0.1653137521527751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.001318750505148967</v>
+        <v>-0.008625270064839805</v>
       </c>
       <c r="C36">
-        <v>0.04286080687486645</v>
+        <v>0.04901298014993236</v>
       </c>
       <c r="D36">
-        <v>0.02358806982370575</v>
+        <v>-0.02901132379793051</v>
       </c>
       <c r="E36">
-        <v>-0.06764627023793131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.05319573756528919</v>
+      </c>
+      <c r="F36">
+        <v>0.002033715745494856</v>
+      </c>
+      <c r="G36">
+        <v>0.02206739446572437</v>
+      </c>
+      <c r="H36">
+        <v>-0.07342429706354618</v>
+      </c>
+      <c r="I36">
+        <v>-0.003597224686138207</v>
+      </c>
+      <c r="J36">
+        <v>-0.007080718638775397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1878,153 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.01108522979960779</v>
+        <v>-0.008547467159328997</v>
       </c>
       <c r="C38">
-        <v>0.04785856076395709</v>
+        <v>0.06263087500071408</v>
       </c>
       <c r="D38">
-        <v>0.02727090558705832</v>
+        <v>-0.01838810128688916</v>
       </c>
       <c r="E38">
-        <v>-0.0537612813532909</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.0566899909572206</v>
+      </c>
+      <c r="F38">
+        <v>-0.04839296847261999</v>
+      </c>
+      <c r="G38">
+        <v>0.01610119946709242</v>
+      </c>
+      <c r="H38">
+        <v>-0.06352427193430622</v>
+      </c>
+      <c r="I38">
+        <v>-0.03306473142929067</v>
+      </c>
+      <c r="J38">
+        <v>0.07202131567539785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.00146748112922713</v>
+        <v>-0.00818425660915199</v>
       </c>
       <c r="C39">
-        <v>0.1291677531478492</v>
+        <v>0.1309625416701945</v>
       </c>
       <c r="D39">
-        <v>0.04454721580627097</v>
+        <v>-0.03082731564169746</v>
       </c>
       <c r="E39">
-        <v>-0.06000310746870838</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04129967984800965</v>
+      </c>
+      <c r="F39">
+        <v>0.01777477791960379</v>
+      </c>
+      <c r="G39">
+        <v>0.0528159523474506</v>
+      </c>
+      <c r="H39">
+        <v>-0.05044554681982492</v>
+      </c>
+      <c r="I39">
+        <v>0.03453676011452646</v>
+      </c>
+      <c r="J39">
+        <v>0.01473336137606336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.0003344521226236804</v>
+        <v>-0.009661677763984907</v>
       </c>
       <c r="C40">
-        <v>0.01941671286624187</v>
+        <v>0.05765184810298252</v>
       </c>
       <c r="D40">
-        <v>0.05684700510189155</v>
+        <v>-0.004148203531025176</v>
       </c>
       <c r="E40">
-        <v>-0.1251924467100646</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.1278914461526067</v>
+      </c>
+      <c r="F40">
+        <v>0.02837654815435981</v>
+      </c>
+      <c r="G40">
+        <v>0.102943804000191</v>
+      </c>
+      <c r="H40">
+        <v>0.003585961883230169</v>
+      </c>
+      <c r="I40">
+        <v>-0.02959800150163906</v>
+      </c>
+      <c r="J40">
+        <v>0.2055516688391838</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.008682814430008312</v>
+        <v>-0.01847513096729987</v>
       </c>
       <c r="C41">
-        <v>0.02244979268054089</v>
+        <v>0.04915413326697923</v>
       </c>
       <c r="D41">
-        <v>-0.001515242849941581</v>
+        <v>-0.006827427761838449</v>
       </c>
       <c r="E41">
-        <v>0.004517847466050027</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.001415219187982788</v>
+      </c>
+      <c r="F41">
+        <v>-0.006276462027880544</v>
+      </c>
+      <c r="G41">
+        <v>0.01048383046960291</v>
+      </c>
+      <c r="H41">
+        <v>-0.03379226462030652</v>
+      </c>
+      <c r="I41">
+        <v>-0.04265617005957907</v>
+      </c>
+      <c r="J41">
+        <v>0.06313013665965274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2038,89 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.002344531245570393</v>
+        <v>-0.01091935710144635</v>
       </c>
       <c r="C43">
-        <v>0.01640567134751524</v>
+        <v>0.04199272335251721</v>
       </c>
       <c r="D43">
-        <v>0.0164822593558257</v>
+        <v>-0.01547894692578894</v>
       </c>
       <c r="E43">
-        <v>-0.03051495666275594</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02549333305698705</v>
+      </c>
+      <c r="F43">
+        <v>-0.01426962156360342</v>
+      </c>
+      <c r="G43">
+        <v>0.02810020683359547</v>
+      </c>
+      <c r="H43">
+        <v>-0.04925500791187644</v>
+      </c>
+      <c r="I43">
+        <v>-0.01502033911332267</v>
+      </c>
+      <c r="J43">
+        <v>0.05238318795162981</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.01182675653353325</v>
+        <v>-0.005018389937661578</v>
       </c>
       <c r="C44">
-        <v>0.07759315988593536</v>
+        <v>0.08506021961444224</v>
       </c>
       <c r="D44">
-        <v>0.06794142997348862</v>
+        <v>-0.03197078144030126</v>
       </c>
       <c r="E44">
-        <v>-0.09667206398797638</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.1007093717466213</v>
+      </c>
+      <c r="F44">
+        <v>-0.006981068454203003</v>
+      </c>
+      <c r="G44">
+        <v>0.02351675986808394</v>
+      </c>
+      <c r="H44">
+        <v>-0.02435731186382629</v>
+      </c>
+      <c r="I44">
+        <v>0.04158276880889079</v>
+      </c>
+      <c r="J44">
+        <v>-0.04920716854632635</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2134,217 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.0110744618840863</v>
+        <v>0.003534977427124353</v>
       </c>
       <c r="C46">
-        <v>0.06074394965450008</v>
+        <v>0.06824268723933861</v>
       </c>
       <c r="D46">
-        <v>0.03731645357831227</v>
+        <v>-0.02153633118487538</v>
       </c>
       <c r="E46">
-        <v>-0.08722288173634846</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.06021961039432856</v>
+      </c>
+      <c r="F46">
+        <v>0.006315409099423427</v>
+      </c>
+      <c r="G46">
+        <v>0.06830149657798473</v>
+      </c>
+      <c r="H46">
+        <v>-0.1192311472133733</v>
+      </c>
+      <c r="I46">
+        <v>0.004443388865496106</v>
+      </c>
+      <c r="J46">
+        <v>0.1064926691952911</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.009771060753118935</v>
+        <v>-0.01881333054425524</v>
       </c>
       <c r="C47">
-        <v>0.1128447000388093</v>
+        <v>0.1006682442137136</v>
       </c>
       <c r="D47">
-        <v>-0.01958099265730103</v>
+        <v>-0.02640897171860281</v>
       </c>
       <c r="E47">
-        <v>0.03153064686918328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01325556778747369</v>
+      </c>
+      <c r="F47">
+        <v>-0.005826676853994552</v>
+      </c>
+      <c r="G47">
+        <v>-0.00794176476831226</v>
+      </c>
+      <c r="H47">
+        <v>-0.08730923849501379</v>
+      </c>
+      <c r="I47">
+        <v>-0.037441945390249</v>
+      </c>
+      <c r="J47">
+        <v>0.03677364643078445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.007385887717687018</v>
+        <v>-0.014873295384137</v>
       </c>
       <c r="C48">
-        <v>0.04602337263408832</v>
+        <v>0.05483799919154081</v>
       </c>
       <c r="D48">
-        <v>0.01114818515071089</v>
+        <v>-0.0372743442341075</v>
       </c>
       <c r="E48">
-        <v>-0.07345066197085752</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.05248258549116398</v>
+      </c>
+      <c r="F48">
+        <v>-0.001306044015458084</v>
+      </c>
+      <c r="G48">
+        <v>0.02601136018410155</v>
+      </c>
+      <c r="H48">
+        <v>-0.1231833874637947</v>
+      </c>
+      <c r="I48">
+        <v>0.001294011299242327</v>
+      </c>
+      <c r="J48">
+        <v>-0.04461974472160733</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.00479091251627321</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.00942030908925195</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.009043109562691819</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.004020130726368902</v>
+      </c>
+      <c r="F49">
+        <v>0.008257822617839042</v>
+      </c>
+      <c r="G49">
+        <v>0.01808545877478975</v>
+      </c>
+      <c r="H49">
+        <v>0.0119754348561464</v>
+      </c>
+      <c r="I49">
+        <v>0.002140808690551935</v>
+      </c>
+      <c r="J49">
+        <v>-0.008264151464896381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.005561000740872106</v>
+        <v>-0.0115480073527888</v>
       </c>
       <c r="C50">
-        <v>0.09181253574665255</v>
+        <v>0.08992146171817746</v>
       </c>
       <c r="D50">
-        <v>-0.004609660932445949</v>
+        <v>-0.01114262751135233</v>
       </c>
       <c r="E50">
-        <v>-0.004824842238488772</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.00351125809776403</v>
+      </c>
+      <c r="F50">
+        <v>-0.01795513405242756</v>
+      </c>
+      <c r="G50">
+        <v>-0.0234180659262856</v>
+      </c>
+      <c r="H50">
+        <v>-0.06626031021764987</v>
+      </c>
+      <c r="I50">
+        <v>-0.06075018209018674</v>
+      </c>
+      <c r="J50">
+        <v>0.04877439731822607</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.008348741363310392</v>
+        <v>0.004463846652714629</v>
       </c>
       <c r="C51">
-        <v>0.04995818305484655</v>
+        <v>0.0382295788965677</v>
       </c>
       <c r="D51">
-        <v>0.07197916784017543</v>
+        <v>-0.007771291550629218</v>
       </c>
       <c r="E51">
-        <v>-0.06923197021130649</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.06230795788246368</v>
+      </c>
+      <c r="F51">
+        <v>0.005002518916556947</v>
+      </c>
+      <c r="G51">
+        <v>0.01569621508434063</v>
+      </c>
+      <c r="H51">
+        <v>-0.1046085147527355</v>
+      </c>
+      <c r="I51">
+        <v>0.03256723085987144</v>
+      </c>
+      <c r="J51">
+        <v>-0.09422836624187986</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2358,153 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.04206651382037396</v>
+        <v>-0.04988399091659979</v>
       </c>
       <c r="C53">
-        <v>0.1631518355768072</v>
+        <v>0.1500871779663505</v>
       </c>
       <c r="D53">
-        <v>-0.0645365762186989</v>
+        <v>-0.04550254249765368</v>
       </c>
       <c r="E53">
-        <v>0.0546056687251447</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.09111183055560249</v>
+      </c>
+      <c r="F53">
+        <v>-0.00710968100409682</v>
+      </c>
+      <c r="G53">
+        <v>-0.05068195842016916</v>
+      </c>
+      <c r="H53">
+        <v>-0.006678793693029928</v>
+      </c>
+      <c r="I53">
+        <v>-0.04689860366840749</v>
+      </c>
+      <c r="J53">
+        <v>0.02573138765646606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.001501048432872041</v>
+        <v>-0.01218937187274825</v>
       </c>
       <c r="C54">
-        <v>0.05767454436996181</v>
+        <v>0.07043382068647489</v>
       </c>
       <c r="D54">
-        <v>0.04653282026267544</v>
+        <v>0.008836286866444875</v>
       </c>
       <c r="E54">
-        <v>-0.01758081514467418</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.03114754837691424</v>
+      </c>
+      <c r="F54">
+        <v>-0.00531416472986353</v>
+      </c>
+      <c r="G54">
+        <v>0.01523777039870655</v>
+      </c>
+      <c r="H54">
+        <v>-0.08552747357504553</v>
+      </c>
+      <c r="I54">
+        <v>0.01771183145800748</v>
+      </c>
+      <c r="J54">
+        <v>0.05689393164758451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.02506706230222003</v>
+        <v>-0.02793594325261095</v>
       </c>
       <c r="C55">
-        <v>0.1253446585090744</v>
+        <v>0.1078024178895201</v>
       </c>
       <c r="D55">
-        <v>-0.05588916472397108</v>
+        <v>-0.04765183033910815</v>
       </c>
       <c r="E55">
-        <v>0.01378776746379442</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.06312174040913429</v>
+      </c>
+      <c r="F55">
+        <v>0.007775121043236375</v>
+      </c>
+      <c r="G55">
+        <v>-0.02660804309231901</v>
+      </c>
+      <c r="H55">
+        <v>-0.01427889679659307</v>
+      </c>
+      <c r="I55">
+        <v>-0.006257856641568846</v>
+      </c>
+      <c r="J55">
+        <v>0.01052427873771086</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.04786588741276679</v>
+        <v>-0.04405454086152102</v>
       </c>
       <c r="C56">
-        <v>0.1988350000108212</v>
+        <v>0.179321066470349</v>
       </c>
       <c r="D56">
-        <v>-0.0886518397297742</v>
+        <v>-0.06985336752148494</v>
       </c>
       <c r="E56">
-        <v>0.08095325547122004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.1286304816269515</v>
+      </c>
+      <c r="F56">
+        <v>-0.001935696870862391</v>
+      </c>
+      <c r="G56">
+        <v>-0.1048677498655359</v>
+      </c>
+      <c r="H56">
+        <v>0.003938932766187733</v>
+      </c>
+      <c r="I56">
+        <v>-0.04198925018976124</v>
+      </c>
+      <c r="J56">
+        <v>-0.03793347843791071</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2518,409 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01829361304960744</v>
+        <v>-0.01023700412069513</v>
       </c>
       <c r="C58">
-        <v>0.1751168874289322</v>
+        <v>0.1687553547818904</v>
       </c>
       <c r="D58">
-        <v>0.2496115351011809</v>
+        <v>0.02215252262791648</v>
       </c>
       <c r="E58">
-        <v>-0.1551453853661678</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.2865025586322023</v>
+      </c>
+      <c r="F58">
+        <v>-0.07789179172516987</v>
+      </c>
+      <c r="G58">
+        <v>-0.1808819372931541</v>
+      </c>
+      <c r="H58">
+        <v>0.001885363623335513</v>
+      </c>
+      <c r="I58">
+        <v>0.07800913374291675</v>
+      </c>
+      <c r="J58">
+        <v>-0.336065594277552</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.255784311154611</v>
+        <v>-0.2752638766115614</v>
       </c>
       <c r="C59">
-        <v>-0.01462859407043832</v>
+        <v>-0.03170522670080812</v>
       </c>
       <c r="D59">
-        <v>0.06183196242924302</v>
+        <v>0.01149113121839209</v>
       </c>
       <c r="E59">
-        <v>-0.01045235569649601</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.05013884421965794</v>
+      </c>
+      <c r="F59">
+        <v>0.01556462003821593</v>
+      </c>
+      <c r="G59">
+        <v>-0.01142043552732873</v>
+      </c>
+      <c r="H59">
+        <v>0.01896080386192829</v>
+      </c>
+      <c r="I59">
+        <v>-0.0977383957100723</v>
+      </c>
+      <c r="J59">
+        <v>-0.01630339729055632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1216434747546598</v>
+        <v>-0.146872891485279</v>
       </c>
       <c r="C60">
-        <v>0.1616929414103939</v>
+        <v>0.16585960189304</v>
       </c>
       <c r="D60">
-        <v>-0.06365469363846318</v>
+        <v>-0.03436692621672306</v>
       </c>
       <c r="E60">
-        <v>0.01772572994159948</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.06069967683778637</v>
+      </c>
+      <c r="F60">
+        <v>0.1170871581997201</v>
+      </c>
+      <c r="G60">
+        <v>0.2467971873310547</v>
+      </c>
+      <c r="H60">
+        <v>0.2844765319442449</v>
+      </c>
+      <c r="I60">
+        <v>0.06645619231760733</v>
+      </c>
+      <c r="J60">
+        <v>-0.0554995226825557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.006274887605103454</v>
+        <v>-0.01432557432683247</v>
       </c>
       <c r="C61">
-        <v>0.09387551948920639</v>
+        <v>0.1068118619103754</v>
       </c>
       <c r="D61">
-        <v>0.008548692386275375</v>
+        <v>-0.03014995276826328</v>
       </c>
       <c r="E61">
-        <v>-0.03686949772755449</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01947732801793774</v>
+      </c>
+      <c r="F61">
+        <v>0.006856118749904039</v>
+      </c>
+      <c r="G61">
+        <v>0.05337160491241678</v>
+      </c>
+      <c r="H61">
+        <v>-0.05397219560527344</v>
+      </c>
+      <c r="I61">
+        <v>0.004229360974255765</v>
+      </c>
+      <c r="J61">
+        <v>0.05551501227085247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0005543320540460256</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.004434020056924544</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.005068356667354133</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.006965461778682308</v>
+      </c>
+      <c r="F62">
+        <v>0.00539217676312639</v>
+      </c>
+      <c r="G62">
+        <v>0.01344417632076981</v>
+      </c>
+      <c r="H62">
+        <v>-0.006796687062975677</v>
+      </c>
+      <c r="I62">
+        <v>0.005522841122120713</v>
+      </c>
+      <c r="J62">
+        <v>-0.007619903377634857</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.007039729755103175</v>
+        <v>-0.01571729316378781</v>
       </c>
       <c r="C63">
-        <v>0.05978149737600959</v>
+        <v>0.07410119890815768</v>
       </c>
       <c r="D63">
-        <v>0.02303716106586835</v>
+        <v>-0.03156450901283089</v>
       </c>
       <c r="E63">
-        <v>-0.03519099087562045</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.03296692968029846</v>
+      </c>
+      <c r="F63">
+        <v>0.006657893957174091</v>
+      </c>
+      <c r="G63">
+        <v>0.03837365680032939</v>
+      </c>
+      <c r="H63">
+        <v>-0.07474391563968018</v>
+      </c>
+      <c r="I63">
+        <v>-0.0217563328609803</v>
+      </c>
+      <c r="J63">
+        <v>0.03350445772705857</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.008801969235342162</v>
+        <v>-0.01306533042951664</v>
       </c>
       <c r="C64">
-        <v>0.1242103420809512</v>
+        <v>0.1069771598653332</v>
       </c>
       <c r="D64">
-        <v>-0.04102829467961536</v>
+        <v>-0.02147253192311172</v>
       </c>
       <c r="E64">
-        <v>-0.02198884677273159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.002282341372071289</v>
+      </c>
+      <c r="F64">
+        <v>-0.02721933661101298</v>
+      </c>
+      <c r="G64">
+        <v>0.02032200173774742</v>
+      </c>
+      <c r="H64">
+        <v>-0.0135182860607479</v>
+      </c>
+      <c r="I64">
+        <v>0.0003517128466004601</v>
+      </c>
+      <c r="J64">
+        <v>0.04820714124688089</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.01912607516787182</v>
+        <v>-0.02599964163198881</v>
       </c>
       <c r="C65">
-        <v>0.07461943785120667</v>
+        <v>0.09027992467614246</v>
       </c>
       <c r="D65">
-        <v>0.04101927387841867</v>
+        <v>0.002274288987746915</v>
       </c>
       <c r="E65">
-        <v>-0.06111873799182845</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.07848293062462426</v>
+      </c>
+      <c r="F65">
+        <v>-0.006099865993043378</v>
+      </c>
+      <c r="G65">
+        <v>0.0915814490856913</v>
+      </c>
+      <c r="H65">
+        <v>0.004681734101195077</v>
+      </c>
+      <c r="I65">
+        <v>0.05405204973534777</v>
+      </c>
+      <c r="J65">
+        <v>-0.003226670979672936</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.0009342000299490435</v>
+        <v>-0.006528682347235778</v>
       </c>
       <c r="C66">
-        <v>0.1492239755525309</v>
+        <v>0.158578468047131</v>
       </c>
       <c r="D66">
-        <v>0.07699344607179108</v>
+        <v>-0.01284646501592668</v>
       </c>
       <c r="E66">
-        <v>-0.08202727633472383</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.06664009107056262</v>
+      </c>
+      <c r="F66">
+        <v>0.005142455999682399</v>
+      </c>
+      <c r="G66">
+        <v>0.03176252422340713</v>
+      </c>
+      <c r="H66">
+        <v>-0.04758641282741832</v>
+      </c>
+      <c r="I66">
+        <v>0.02804127576651827</v>
+      </c>
+      <c r="J66">
+        <v>0.0117388977911372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.01615887536277408</v>
+        <v>-0.01730360315329533</v>
       </c>
       <c r="C67">
-        <v>0.04397771740816276</v>
+        <v>0.0581939204187074</v>
       </c>
       <c r="D67">
-        <v>-0.01978564400924715</v>
+        <v>-0.02969604992503165</v>
       </c>
       <c r="E67">
-        <v>-0.02942557471771974</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01698996747538568</v>
+      </c>
+      <c r="F67">
+        <v>-0.03554866941302262</v>
+      </c>
+      <c r="G67">
+        <v>0.042512394900493</v>
+      </c>
+      <c r="H67">
+        <v>-0.04080529161338323</v>
+      </c>
+      <c r="I67">
+        <v>-0.02643520791899961</v>
+      </c>
+      <c r="J67">
+        <v>0.08277582654409944</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.2601026962516714</v>
+        <v>-0.2875017286526569</v>
       </c>
       <c r="C68">
-        <v>-0.03462818225683847</v>
+        <v>-0.04059174464892144</v>
       </c>
       <c r="D68">
-        <v>0.05800576968745801</v>
+        <v>0.03487683277742778</v>
       </c>
       <c r="E68">
-        <v>-0.01224895437592558</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.05989696890256908</v>
+      </c>
+      <c r="F68">
+        <v>-0.015370408104155</v>
+      </c>
+      <c r="G68">
+        <v>-0.04618324088055533</v>
+      </c>
+      <c r="H68">
+        <v>0.02041155387178696</v>
+      </c>
+      <c r="I68">
+        <v>-0.08177076823079489</v>
+      </c>
+      <c r="J68">
+        <v>-0.0007704774561850056</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.01369595997336538</v>
+        <v>-0.009024471002174047</v>
       </c>
       <c r="C69">
-        <v>0.1072229085363856</v>
+        <v>0.08076335820243825</v>
       </c>
       <c r="D69">
-        <v>-0.04116779366882046</v>
+        <v>-0.02251184381689215</v>
       </c>
       <c r="E69">
-        <v>-0.0176089312978082</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01314084896448178</v>
+      </c>
+      <c r="F69">
+        <v>-0.009718687853116463</v>
+      </c>
+      <c r="G69">
+        <v>-0.0001056975760581097</v>
+      </c>
+      <c r="H69">
+        <v>-0.06147251262140725</v>
+      </c>
+      <c r="I69">
+        <v>-0.0321823725408242</v>
+      </c>
+      <c r="J69">
+        <v>0.02044708426945352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2934,825 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.273590825366334</v>
+        <v>-0.2741067602341881</v>
       </c>
       <c r="C71">
-        <v>-0.05010931455665032</v>
+        <v>-0.06207652092965291</v>
       </c>
       <c r="D71">
-        <v>0.05326310583032827</v>
+        <v>0.01865937577988542</v>
       </c>
       <c r="E71">
-        <v>0.02453049961998362</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.04146507455120856</v>
+      </c>
+      <c r="F71">
+        <v>-0.03663888233557723</v>
+      </c>
+      <c r="G71">
+        <v>-0.002554034291926467</v>
+      </c>
+      <c r="H71">
+        <v>-0.0624974480540532</v>
+      </c>
+      <c r="I71">
+        <v>-0.1072043849823307</v>
+      </c>
+      <c r="J71">
+        <v>-0.07904483541565067</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.0601161670161615</v>
+        <v>-0.05867915507813096</v>
       </c>
       <c r="C72">
-        <v>0.1837246730275328</v>
+        <v>0.1603179254720439</v>
       </c>
       <c r="D72">
-        <v>-0.02703389335596714</v>
+        <v>-0.01949330810706468</v>
       </c>
       <c r="E72">
-        <v>-0.06716768383043915</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01743077485225902</v>
+      </c>
+      <c r="F72">
+        <v>0.01746076057124965</v>
+      </c>
+      <c r="G72">
+        <v>0.02667778604231954</v>
+      </c>
+      <c r="H72">
+        <v>0.04332200944688986</v>
+      </c>
+      <c r="I72">
+        <v>0.08335253932518974</v>
+      </c>
+      <c r="J72">
+        <v>0.07460038126266179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.09482337611147744</v>
+        <v>-0.146214502840552</v>
       </c>
       <c r="C73">
-        <v>0.1652103165941294</v>
+        <v>0.2060995597379608</v>
       </c>
       <c r="D73">
-        <v>-0.08923332103851014</v>
+        <v>-0.05155363479496419</v>
       </c>
       <c r="E73">
-        <v>0.009282393486646247</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.08750171479743847</v>
+      </c>
+      <c r="F73">
+        <v>0.1379047657528236</v>
+      </c>
+      <c r="G73">
+        <v>0.4268762164352323</v>
+      </c>
+      <c r="H73">
+        <v>0.2812114083572489</v>
+      </c>
+      <c r="I73">
+        <v>-0.01311835831118522</v>
+      </c>
+      <c r="J73">
+        <v>-0.1177306224424222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.03027770108119544</v>
+        <v>-0.03649519438383747</v>
       </c>
       <c r="C74">
-        <v>0.1207010261616571</v>
+        <v>0.116262484082764</v>
       </c>
       <c r="D74">
-        <v>-0.09382568651080334</v>
+        <v>-0.04461004092021401</v>
       </c>
       <c r="E74">
-        <v>0.04615950998219466</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.08063966875317645</v>
+      </c>
+      <c r="F74">
+        <v>-0.006390723431360603</v>
+      </c>
+      <c r="G74">
+        <v>-0.03529528652905642</v>
+      </c>
+      <c r="H74">
+        <v>-0.01485772446416375</v>
+      </c>
+      <c r="I74">
+        <v>-0.01090156626995836</v>
+      </c>
+      <c r="J74">
+        <v>0.0116908320486767</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.098242106769513</v>
+        <v>-0.07044944395093269</v>
       </c>
       <c r="C75">
-        <v>0.2210515077702579</v>
+        <v>0.1976420661020009</v>
       </c>
       <c r="D75">
-        <v>-0.2112062089724107</v>
+        <v>-0.09069805228446526</v>
       </c>
       <c r="E75">
-        <v>0.1381613355305914</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.228204020796084</v>
+      </c>
+      <c r="F75">
+        <v>-0.09252634182596146</v>
+      </c>
+      <c r="G75">
+        <v>-0.1417406680552764</v>
+      </c>
+      <c r="H75">
+        <v>0.01327661443201044</v>
+      </c>
+      <c r="I75">
+        <v>-0.08096808653040691</v>
+      </c>
+      <c r="J75">
+        <v>0.0507318531606569</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.04391380713427651</v>
+        <v>-0.03987098131550453</v>
       </c>
       <c r="C76">
-        <v>0.1517879724454479</v>
+        <v>0.1453106844705691</v>
       </c>
       <c r="D76">
-        <v>-0.1037182659332628</v>
+        <v>-0.07434932381221743</v>
       </c>
       <c r="E76">
-        <v>0.04607533822914611</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.1107571935127763</v>
+      </c>
+      <c r="F76">
+        <v>-0.001510832273170895</v>
+      </c>
+      <c r="G76">
+        <v>-0.02972793064257908</v>
+      </c>
+      <c r="H76">
+        <v>-0.0173558611555821</v>
+      </c>
+      <c r="I76">
+        <v>-0.02000754685886774</v>
+      </c>
+      <c r="J76">
+        <v>0.03215987233251593</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.02912124356726821</v>
+        <v>-0.02274800424974545</v>
       </c>
       <c r="C77">
-        <v>0.1572819014313257</v>
+        <v>0.2388747901298705</v>
       </c>
       <c r="D77">
-        <v>0.5955886046293284</v>
+        <v>0.9461233725278161</v>
       </c>
       <c r="E77">
-        <v>0.7139099955085388</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.1690656582561831</v>
+      </c>
+      <c r="F77">
+        <v>-0.02586105139393077</v>
+      </c>
+      <c r="G77">
+        <v>-0.0002029272911950673</v>
+      </c>
+      <c r="H77">
+        <v>-0.04577923292423617</v>
+      </c>
+      <c r="I77">
+        <v>0.0183283926481111</v>
+      </c>
+      <c r="J77">
+        <v>0.005981085596817585</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.02541714344954521</v>
+        <v>-0.02516736424887177</v>
       </c>
       <c r="C78">
-        <v>0.1522469771098277</v>
+        <v>0.125459272915309</v>
       </c>
       <c r="D78">
-        <v>0.06623502512755899</v>
+        <v>-0.05919534085986498</v>
       </c>
       <c r="E78">
-        <v>-0.09418956462656021</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.04514622518889681</v>
+      </c>
+      <c r="F78">
+        <v>0.00953178163867298</v>
+      </c>
+      <c r="G78">
+        <v>-0.09050999629232317</v>
+      </c>
+      <c r="H78">
+        <v>-0.1415423568929346</v>
+      </c>
+      <c r="I78">
+        <v>0.1756198150697474</v>
+      </c>
+      <c r="J78">
+        <v>-0.5387764902888416</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.06139527639341977</v>
+        <v>-0.05631249273513732</v>
       </c>
       <c r="C79">
-        <v>0.2489441246521466</v>
+        <v>0.1920415352296524</v>
       </c>
       <c r="D79">
-        <v>-0.1822105029896836</v>
+        <v>-0.07149549043169443</v>
       </c>
       <c r="E79">
-        <v>0.111976293028427</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1848797110668661</v>
+      </c>
+      <c r="F79">
+        <v>-0.02331761130580618</v>
+      </c>
+      <c r="G79">
+        <v>-0.1931269362067383</v>
+      </c>
+      <c r="H79">
+        <v>-0.04331200412905579</v>
+      </c>
+      <c r="I79">
+        <v>-0.07934501106741243</v>
+      </c>
+      <c r="J79">
+        <v>-0.008898404349189693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.01373289681612237</v>
+        <v>-0.006749280932859683</v>
       </c>
       <c r="C80">
-        <v>0.0701785020823352</v>
+        <v>0.06373288331556713</v>
       </c>
       <c r="D80">
-        <v>-0.02319659848732398</v>
+        <v>-0.0398795068936532</v>
       </c>
       <c r="E80">
-        <v>-0.02376015036796541</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03480265403168219</v>
+      </c>
+      <c r="F80">
+        <v>0.07345546941865104</v>
+      </c>
+      <c r="G80">
+        <v>0.04447834925628858</v>
+      </c>
+      <c r="H80">
+        <v>0.04067385108609754</v>
+      </c>
+      <c r="I80">
+        <v>-0.06367524926194978</v>
+      </c>
+      <c r="J80">
+        <v>0.08450748993346882</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.0392664877831596</v>
+        <v>-0.02354264137711957</v>
       </c>
       <c r="C81">
-        <v>0.1349445908941093</v>
+        <v>0.1221910596792296</v>
       </c>
       <c r="D81">
-        <v>-0.1345023106562333</v>
+        <v>-0.04898913180786172</v>
       </c>
       <c r="E81">
-        <v>0.09738769579250812</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.1098554309154399</v>
+      </c>
+      <c r="F81">
+        <v>-0.02228998978806399</v>
+      </c>
+      <c r="G81">
+        <v>-0.09767385106100505</v>
+      </c>
+      <c r="H81">
+        <v>-0.06607280570326672</v>
+      </c>
+      <c r="I81">
+        <v>-0.09249437417797594</v>
+      </c>
+      <c r="J81">
+        <v>0.03657719450622462</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.06240406988619493</v>
+        <v>-0.05079141717368688</v>
       </c>
       <c r="C82">
-        <v>0.1613972844149442</v>
+        <v>0.1361926952566543</v>
       </c>
       <c r="D82">
-        <v>-0.1411894934537452</v>
+        <v>-0.07303347155596637</v>
       </c>
       <c r="E82">
-        <v>0.0675990140266311</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1239220218272096</v>
+      </c>
+      <c r="F82">
+        <v>-0.006399697176060919</v>
+      </c>
+      <c r="G82">
+        <v>-0.06348729863799756</v>
+      </c>
+      <c r="H82">
+        <v>-0.03633630536639326</v>
+      </c>
+      <c r="I82">
+        <v>-0.05779206131282363</v>
+      </c>
+      <c r="J82">
+        <v>0.02923506970787765</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.01159959443442705</v>
+        <v>-0.004524593159790728</v>
       </c>
       <c r="C83">
-        <v>0.06236162412759648</v>
+        <v>0.01166378812148096</v>
       </c>
       <c r="D83">
-        <v>0.05523243872239778</v>
+        <v>0.04250183809382105</v>
       </c>
       <c r="E83">
-        <v>-0.0148296265287994</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.07603035655190886</v>
+      </c>
+      <c r="F83">
+        <v>0.9078376427168087</v>
+      </c>
+      <c r="G83">
+        <v>-0.2952176541552238</v>
+      </c>
+      <c r="H83">
+        <v>0.02938597639488322</v>
+      </c>
+      <c r="I83">
+        <v>-0.1259482336364315</v>
+      </c>
+      <c r="J83">
+        <v>0.005536472063880941</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.001445411066707209</v>
+        <v>0.002025652741438343</v>
       </c>
       <c r="C84">
-        <v>0.02965161316429803</v>
+        <v>0.03870551630379977</v>
       </c>
       <c r="D84">
-        <v>0.03429631349654228</v>
+        <v>-0.04331874940690183</v>
       </c>
       <c r="E84">
-        <v>-0.07963024023505089</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.07937223350690004</v>
+      </c>
+      <c r="F84">
+        <v>-0.05239564007094906</v>
+      </c>
+      <c r="G84">
+        <v>-0.03903008726094836</v>
+      </c>
+      <c r="H84">
+        <v>-0.06514667277618633</v>
+      </c>
+      <c r="I84">
+        <v>0.0497288991198282</v>
+      </c>
+      <c r="J84">
+        <v>0.1179660480913346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.04125160055605718</v>
+        <v>-0.03172096392651403</v>
       </c>
       <c r="C85">
-        <v>0.1765336249368233</v>
+        <v>0.1429016329034091</v>
       </c>
       <c r="D85">
-        <v>-0.1487814506879085</v>
+        <v>-0.0848656710832565</v>
       </c>
       <c r="E85">
-        <v>0.07691921518723671</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1728309153151769</v>
+      </c>
+      <c r="F85">
+        <v>-0.01581603327226436</v>
+      </c>
+      <c r="G85">
+        <v>-0.1186170370284643</v>
+      </c>
+      <c r="H85">
+        <v>-0.0195106467286261</v>
+      </c>
+      <c r="I85">
+        <v>-0.07648426783071351</v>
+      </c>
+      <c r="J85">
+        <v>0.04964130389947367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.02940632782980166</v>
+        <v>-0.016576069261178</v>
       </c>
       <c r="C86">
-        <v>0.04368548552207729</v>
+        <v>0.06919541303723109</v>
       </c>
       <c r="D86">
-        <v>0.1000511925402699</v>
+        <v>0.008555732962362604</v>
       </c>
       <c r="E86">
-        <v>-0.002342378318241734</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.07904064358860968</v>
+      </c>
+      <c r="F86">
+        <v>-0.05572367238994103</v>
+      </c>
+      <c r="G86">
+        <v>-0.05405373293427684</v>
+      </c>
+      <c r="H86">
+        <v>-0.07886374777245682</v>
+      </c>
+      <c r="I86">
+        <v>-0.04433213407492875</v>
+      </c>
+      <c r="J86">
+        <v>-0.1749861385327554</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02207347682153126</v>
+        <v>-0.01503771715031261</v>
       </c>
       <c r="C87">
-        <v>0.1188035017396319</v>
+        <v>0.121226989295906</v>
       </c>
       <c r="D87">
-        <v>0.1170431516098866</v>
+        <v>0.02027893615626634</v>
       </c>
       <c r="E87">
-        <v>-0.09609863512329611</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.1129592588327068</v>
+      </c>
+      <c r="F87">
+        <v>-0.01952368570872406</v>
+      </c>
+      <c r="G87">
+        <v>-0.01761395597298373</v>
+      </c>
+      <c r="H87">
+        <v>-0.02103791582547912</v>
+      </c>
+      <c r="I87">
+        <v>0.1494790840574445</v>
+      </c>
+      <c r="J87">
+        <v>-0.06940749685161766</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.0215134479671488</v>
+        <v>-0.03463269926128192</v>
       </c>
       <c r="C88">
-        <v>0.0749858790085713</v>
+        <v>0.08319391521479981</v>
       </c>
       <c r="D88">
-        <v>-0.05057827405493105</v>
+        <v>-0.0266234228900296</v>
       </c>
       <c r="E88">
-        <v>0.001071685315111906</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01100646619853044</v>
+      </c>
+      <c r="F88">
+        <v>-0.008964729931869878</v>
+      </c>
+      <c r="G88">
+        <v>0.02787041550413373</v>
+      </c>
+      <c r="H88">
+        <v>-0.01023552548715642</v>
+      </c>
+      <c r="I88">
+        <v>-0.02764680633004897</v>
+      </c>
+      <c r="J88">
+        <v>0.10073967863857</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.4405954957645966</v>
+        <v>-0.4062311008356614</v>
       </c>
       <c r="C89">
-        <v>-0.1042079302399053</v>
+        <v>-0.1118673032347645</v>
       </c>
       <c r="D89">
-        <v>-0.03677988793104724</v>
+        <v>0.01255793922006263</v>
       </c>
       <c r="E89">
-        <v>-0.2628471759452743</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05668027270646862</v>
+      </c>
+      <c r="F89">
+        <v>0.09140816466112475</v>
+      </c>
+      <c r="G89">
+        <v>-0.08853585036241501</v>
+      </c>
+      <c r="H89">
+        <v>-0.05200244647361046</v>
+      </c>
+      <c r="I89">
+        <v>0.7537325862405835</v>
+      </c>
+      <c r="J89">
+        <v>0.215706548782668</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.3312009957767535</v>
+        <v>-0.3260314875472644</v>
       </c>
       <c r="C90">
-        <v>-0.0564146671219302</v>
+        <v>-0.0637862991625654</v>
       </c>
       <c r="D90">
-        <v>0.06950266470337661</v>
+        <v>0.01869067518975496</v>
       </c>
       <c r="E90">
-        <v>0.0042194057367636</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.04138015911459357</v>
+      </c>
+      <c r="F90">
+        <v>-0.02042393198213929</v>
+      </c>
+      <c r="G90">
+        <v>-0.01918642875932562</v>
+      </c>
+      <c r="H90">
+        <v>0.01197209999496973</v>
+      </c>
+      <c r="I90">
+        <v>-0.1595728647775828</v>
+      </c>
+      <c r="J90">
+        <v>-0.01678705245061798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.04459088036714613</v>
+        <v>-0.05023724240186637</v>
       </c>
       <c r="C91">
-        <v>0.1421084735857177</v>
+        <v>0.1220039828806714</v>
       </c>
       <c r="D91">
-        <v>-0.09116050746150432</v>
+        <v>-0.03798819985480087</v>
       </c>
       <c r="E91">
-        <v>0.06403320416220157</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.09933085362576152</v>
+      </c>
+      <c r="F91">
+        <v>0.02544696159781059</v>
+      </c>
+      <c r="G91">
+        <v>-0.0692980174251397</v>
+      </c>
+      <c r="H91">
+        <v>-0.01214595847442886</v>
+      </c>
+      <c r="I91">
+        <v>-0.03044766037862795</v>
+      </c>
+      <c r="J91">
+        <v>0.03559387955002149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.3494109319171657</v>
+        <v>-0.3507503435036535</v>
       </c>
       <c r="C92">
-        <v>-0.110375916391768</v>
+        <v>-0.1160015530235069</v>
       </c>
       <c r="D92">
-        <v>0.07388039560441048</v>
+        <v>0.04776534885767711</v>
       </c>
       <c r="E92">
-        <v>0.02245844011347816</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06710263062380141</v>
+      </c>
+      <c r="F92">
+        <v>-0.1034623123389178</v>
+      </c>
+      <c r="G92">
+        <v>-0.002210745171304299</v>
+      </c>
+      <c r="H92">
+        <v>-0.03874387730145804</v>
+      </c>
+      <c r="I92">
+        <v>-0.1513159234629242</v>
+      </c>
+      <c r="J92">
+        <v>-0.001306246268108715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.3329054112682363</v>
+        <v>-0.3237708314084516</v>
       </c>
       <c r="C93">
-        <v>-0.08954036543724622</v>
+        <v>-0.1059791905882992</v>
       </c>
       <c r="D93">
-        <v>-0.0105707708146064</v>
+        <v>-0.00307138234888859</v>
       </c>
       <c r="E93">
-        <v>0.02139456152332915</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.002597766309559414</v>
+      </c>
+      <c r="F93">
+        <v>-0.02191957612544731</v>
+      </c>
+      <c r="G93">
+        <v>-0.02924353849660683</v>
+      </c>
+      <c r="H93">
+        <v>-0.04104756171393452</v>
+      </c>
+      <c r="I93">
+        <v>-0.1146599620509604</v>
+      </c>
+      <c r="J93">
+        <v>-0.04459451129696967</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.1011681730983825</v>
+        <v>-0.08706711838134337</v>
       </c>
       <c r="C94">
-        <v>0.235202650769023</v>
+        <v>0.2016544018711353</v>
       </c>
       <c r="D94">
-        <v>-0.2617572468241178</v>
+        <v>-0.1179115695308478</v>
       </c>
       <c r="E94">
-        <v>0.121417552552658</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.3408641056220197</v>
+      </c>
+      <c r="F94">
+        <v>-0.05748263010431637</v>
+      </c>
+      <c r="G94">
+        <v>-0.3564409638163765</v>
+      </c>
+      <c r="H94">
+        <v>0.1075797166341902</v>
+      </c>
+      <c r="I94">
+        <v>0.2010001706682051</v>
+      </c>
+      <c r="J94">
+        <v>0.07160861450823638</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.02952494728147881</v>
+        <v>-0.03309624822074875</v>
       </c>
       <c r="C95">
-        <v>0.06805410185051439</v>
+        <v>0.113675697870209</v>
       </c>
       <c r="D95">
-        <v>-0.005259343560836739</v>
+        <v>-0.006747910479148115</v>
       </c>
       <c r="E95">
-        <v>-0.01271681411189408</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.0003255691151765135</v>
+      </c>
+      <c r="F95">
+        <v>-0.01646118363125963</v>
+      </c>
+      <c r="G95">
+        <v>0.1268667745851863</v>
+      </c>
+      <c r="H95">
+        <v>-0.04753631947867099</v>
+      </c>
+      <c r="I95">
+        <v>0.0006317035669141583</v>
+      </c>
+      <c r="J95">
+        <v>0.1181342224465252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +3766,121 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.004401666583593927</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.008227064475222366</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02049262234153662</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.01876425317274989</v>
+      </c>
+      <c r="F97">
+        <v>-0.0125105483185494</v>
+      </c>
+      <c r="G97">
+        <v>0.03663533355095062</v>
+      </c>
+      <c r="H97">
+        <v>0.01119668082605746</v>
+      </c>
+      <c r="I97">
+        <v>-0.006161363648080532</v>
+      </c>
+      <c r="J97">
+        <v>-0.005503190670224856</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.07903780815251356</v>
+        <v>-0.1277974219444791</v>
       </c>
       <c r="C98">
-        <v>0.1575258205693477</v>
+        <v>0.1747355417374237</v>
       </c>
       <c r="D98">
-        <v>-0.03590896827153794</v>
+        <v>-0.05691356400644336</v>
       </c>
       <c r="E98">
-        <v>0.004573412233722628</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06293760687926202</v>
+      </c>
+      <c r="F98">
+        <v>0.09424210405934236</v>
+      </c>
+      <c r="G98">
+        <v>0.3599407495830744</v>
+      </c>
+      <c r="H98">
+        <v>0.3273111495322802</v>
+      </c>
+      <c r="I98">
+        <v>0.03705512905093021</v>
+      </c>
+      <c r="J98">
+        <v>-0.1722047647770823</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.001371971882874549</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.008014966691967681</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.009332276591349649</v>
       </c>
       <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.005289859858262008</v>
+      </c>
+      <c r="F99">
+        <v>-0.0008786105316152689</v>
+      </c>
+      <c r="G99">
+        <v>0.004977958426760748</v>
+      </c>
+      <c r="H99">
+        <v>-0.01989347955042592</v>
+      </c>
+      <c r="I99">
+        <v>0.0194058803532413</v>
+      </c>
+      <c r="J99">
+        <v>0.0081781347373658</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3894,89 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.0007169190333324205</v>
+        <v>-0.004867982360581454</v>
       </c>
       <c r="C101">
-        <v>0.05645026460928709</v>
+        <v>0.07884685946682263</v>
       </c>
       <c r="D101">
-        <v>0.0499922988618518</v>
+        <v>-0.01735142974935585</v>
       </c>
       <c r="E101">
-        <v>-0.08778490647365128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.09870375128189848</v>
+      </c>
+      <c r="F101">
+        <v>0.04964164839291795</v>
+      </c>
+      <c r="G101">
+        <v>0.1166475660359774</v>
+      </c>
+      <c r="H101">
+        <v>-0.1980460369813186</v>
+      </c>
+      <c r="I101">
+        <v>0.04992082597329139</v>
+      </c>
+      <c r="J101">
+        <v>0.1691109383449139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.02591655956769415</v>
+        <v>-0.01072348456678243</v>
       </c>
       <c r="C102">
-        <v>0.08831210813267447</v>
+        <v>0.04235784526510673</v>
       </c>
       <c r="D102">
-        <v>-0.06686776905039253</v>
+        <v>-0.02049503588887714</v>
       </c>
       <c r="E102">
-        <v>0.03237501148601488</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.05434791522933122</v>
+      </c>
+      <c r="F102">
+        <v>0.008756080733050701</v>
+      </c>
+      <c r="G102">
+        <v>-0.04565519800603519</v>
+      </c>
+      <c r="H102">
+        <v>-0.004440845651698654</v>
+      </c>
+      <c r="I102">
+        <v>0.00454995249678284</v>
+      </c>
+      <c r="J102">
+        <v>0.002388549809481125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3990,25 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4020,21 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
